--- a/data/hand/excel/blockchain_type.xlsx
+++ b/data/hand/excel/blockchain_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrejkotsovolos/Desktop/GitHub/ASIM-Coins/data/hand/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrejkotsovolos/Desktop/GitHub/ASIM-Coins/data/hand/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D2312D1-C464-294C-B29A-9DE468CC4104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602A2619-B7F9-5546-9C58-DE42B03C9209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7100" yWindow="660" windowWidth="27640" windowHeight="15440" xr2:uid="{14E3EFFC-A9B2-B643-B617-FAD8C972BFD8}"/>
+    <workbookView xWindow="1160" yWindow="660" windowWidth="27640" windowHeight="15440" xr2:uid="{14E3EFFC-A9B2-B643-B617-FAD8C972BFD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Bitcoin</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Solana</t>
   </si>
   <si>
-    <t>Terra Luna</t>
-  </si>
-  <si>
     <t>Cardano</t>
   </si>
   <si>
@@ -67,7 +64,13 @@
     <t>Monero</t>
   </si>
   <si>
-    <t>Blockchain</t>
+    <t>Public Blockchain</t>
+  </si>
+  <si>
+    <t>Private Blockchain</t>
+  </si>
+  <si>
+    <t>Consortium Blockchain</t>
   </si>
 </sst>
 </file>
@@ -419,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8952E2BF-12CF-D343-9084-6EBC5F64EEFC}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -428,9 +431,6 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -446,20 +446,113 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>9</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
